--- a/Task_2_1_1/grafic.xlsx
+++ b/Task_2_1_1/grafic.xlsx
@@ -19,33 +19,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Паралельные стримы</t>
+    <t>количесвто простых чисел в файле</t>
   </si>
   <si>
-    <t>4 потока</t>
+    <t>seq</t>
   </si>
   <si>
-    <t>8 потоков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Количество простых чисел в диапазоне </t>
-  </si>
-  <si>
-    <t>Последовательный поиск</t>
-  </si>
-  <si>
-    <t>0 - 1000</t>
-  </si>
-  <si>
-    <t>0 - 100000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0 - 10000000</t>
-  </si>
-  <si>
-    <t>0 - 50000000</t>
+    <t>ps</t>
   </si>
 </sst>
 </file>
@@ -69,7 +51,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -77,36 +59,21 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -122,6 +89,1599 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.26710870975962842"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1Т</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$3:$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>359</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-45C9-455E-BA54-5037E71A87EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>100Т</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4421</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2838</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2504</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2778</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2725</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3535</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3386</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3354</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3258</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2624</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-45C9-455E-BA54-5037E71A87EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>1М</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>49413</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30611</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27729</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21742</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30071</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32161</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37830</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37935</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41166</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38166</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40457</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-45C9-455E-BA54-5037E71A87EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>5М</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$6:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>143456</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>103000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55684</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89911</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>109788</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>116664</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>126351</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>127330</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>116771</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-45C9-455E-BA54-5037E71A87EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>10М</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$7:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="2">
+                  <c:v>216077</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>169314</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>270183</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>274810</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>288682</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>315022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>366496</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>362322</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>365527</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-45C9-455E-BA54-5037E71A87EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>20М</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$8:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-45C9-455E-BA54-5037E71A87EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                  <a:alpha val="33000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="380069152"/>
+        <c:axId val="380073088"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="380069152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="380073088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="380073088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="380069152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+            <a:alpha val="33000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -387,206 +1947,322 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="31.21875" customWidth="1"/>
     <col min="3" max="4" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4">
         <v>8</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
+      <c r="F1">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4">
+        <v>20</v>
+      </c>
+      <c r="H1" s="5">
+        <v>50</v>
+      </c>
+      <c r="I1" s="5">
+        <v>100</v>
+      </c>
+      <c r="J1" s="5">
+        <v>500</v>
+      </c>
+      <c r="K1" s="5">
+        <v>1000</v>
+      </c>
+      <c r="L1" s="5">
+        <v>5000</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5">
         <v>4</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2">
-        <v>2403</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2">
-        <v>22943</v>
-      </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
+      <c r="G2" s="5">
+        <v>4</v>
+      </c>
+      <c r="H2" s="5">
+        <v>5</v>
+      </c>
+      <c r="I2" s="5">
+        <v>19</v>
+      </c>
+      <c r="J2" s="5">
+        <v>44</v>
+      </c>
+      <c r="K2" s="5">
+        <v>71</v>
+      </c>
+      <c r="L2" s="5">
+        <v>264</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <v>55</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2">
-        <v>1761</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2">
-        <v>13665</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
+      <c r="A3" s="4">
+        <v>100000</v>
+      </c>
+      <c r="B3" s="4">
+        <v>198</v>
+      </c>
+      <c r="C3" s="4">
+        <v>255</v>
+      </c>
+      <c r="D3" s="5">
+        <v>150</v>
+      </c>
+      <c r="E3" s="5">
+        <v>109</v>
+      </c>
+      <c r="F3" s="5">
+        <v>135</v>
+      </c>
+      <c r="G3" s="5">
+        <v>125</v>
+      </c>
+      <c r="H3" s="5">
+        <v>113</v>
+      </c>
+      <c r="I3" s="5">
+        <v>135</v>
+      </c>
+      <c r="J3" s="4">
+        <v>110</v>
+      </c>
+      <c r="K3" s="4">
+        <v>161</v>
+      </c>
+      <c r="L3" s="4">
+        <v>359</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>18</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2">
-        <v>1079</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2">
-        <v>8838</v>
-      </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
+      <c r="A4" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4421</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2838</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2504</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1975</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2778</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2725</v>
+      </c>
+      <c r="H4" s="5">
+        <v>3535</v>
+      </c>
+      <c r="I4" s="5">
+        <v>3386</v>
+      </c>
+      <c r="J4" s="5">
+        <v>3354</v>
+      </c>
+      <c r="K4" s="5">
+        <v>3258</v>
+      </c>
+      <c r="L4" s="5">
+        <v>2624</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2">
-        <v>3</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>16</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2">
-        <v>1002</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2">
-        <v>7758</v>
-      </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
+      <c r="A5" s="5">
+        <v>5000000</v>
+      </c>
+      <c r="B5" s="5">
+        <v>49413</v>
+      </c>
+      <c r="C5" s="5">
+        <v>30611</v>
+      </c>
+      <c r="D5" s="5">
+        <v>27729</v>
+      </c>
+      <c r="E5" s="5">
+        <v>21742</v>
+      </c>
+      <c r="F5" s="5">
+        <v>30071</v>
+      </c>
+      <c r="G5" s="5">
+        <v>32161</v>
+      </c>
+      <c r="H5" s="5">
+        <v>37830</v>
+      </c>
+      <c r="I5" s="5">
+        <v>37935</v>
+      </c>
+      <c r="J5" s="5">
+        <v>41166</v>
+      </c>
+      <c r="K5" s="5">
+        <v>38166</v>
+      </c>
+      <c r="L5" s="5">
+        <v>40457</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>10000000</v>
+      </c>
+      <c r="B6" s="5">
+        <v>143456</v>
+      </c>
+      <c r="C6" s="5">
+        <v>103000</v>
+      </c>
+      <c r="D6" s="5">
+        <v>77997</v>
+      </c>
+      <c r="E6" s="5">
+        <v>55684</v>
+      </c>
+      <c r="F6" s="5">
+        <v>89911</v>
+      </c>
+      <c r="G6" s="5">
+        <v>94002</v>
+      </c>
+      <c r="H6" s="5">
+        <v>109788</v>
+      </c>
+      <c r="I6" s="5">
+        <v>116664</v>
+      </c>
+      <c r="J6" s="5">
+        <v>126351</v>
+      </c>
+      <c r="K6" s="5">
+        <v>127330</v>
+      </c>
+      <c r="L6" s="5">
+        <v>116771</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>20000000</v>
+      </c>
+      <c r="D7" s="5">
+        <v>216077</v>
+      </c>
+      <c r="E7" s="5">
+        <v>169314</v>
+      </c>
+      <c r="F7" s="5">
+        <v>270183</v>
+      </c>
+      <c r="G7" s="5">
+        <v>274810</v>
+      </c>
+      <c r="H7" s="5">
+        <v>288682</v>
+      </c>
+      <c r="I7" s="5">
+        <v>315022</v>
+      </c>
+      <c r="J7" s="5">
+        <v>366496</v>
+      </c>
+      <c r="K7" s="5">
+        <v>362322</v>
+      </c>
+      <c r="L7" s="5">
+        <v>365527</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Task_2_1_1/grafic.xlsx
+++ b/Task_2_1_1/grafic.xlsx
@@ -51,10 +51,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -63,7 +72,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -74,6 +83,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -106,14 +116,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.26710870975962842"/>
-          <c:y val="0"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -127,11 +130,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -145,24 +148,37 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1478031496062992"/>
+          <c:y val="0.1115277777777778"/>
+          <c:w val="0.79664129483814528"/>
+          <c:h val="0.68385061242344702"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>1Т</c:v>
-          </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -184,9 +200,9 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -211,13 +227,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="dk1">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -227,42 +244,30 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$3:$L$3</c:f>
+              <c:f>Лист1!$B$2:$H$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>198</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>255</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>150</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>109</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>135</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>125</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>359</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -270,24 +275,27 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-45C9-455E-BA54-5037E71A87EB}"/>
+              <c16:uniqueId val="{00000000-9D23-41C9-8C51-5BF876C8C978}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>100Т</c:v>
-          </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -309,9 +317,9 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -336,13 +344,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="dk1">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -352,42 +361,30 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$4:$L$4</c:f>
+              <c:f>Лист1!$B$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4421</c:v>
+                  <c:v>434</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2838</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2504</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1975</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2778</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2725</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3535</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3386</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3354</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3258</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2624</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -395,24 +392,27 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-45C9-455E-BA54-5037E71A87EB}"/>
+              <c16:uniqueId val="{00000001-9D23-41C9-8C51-5BF876C8C978}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:v>1М</c:v>
-          </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -434,9 +434,9 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -461,13 +461,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="dk1">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -477,42 +478,30 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$5:$L$5</c:f>
+              <c:f>Лист1!$B$4:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>49413</c:v>
+                  <c:v>41163</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30611</c:v>
+                  <c:v>1994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27729</c:v>
+                  <c:v>1760</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21742</c:v>
+                  <c:v>1975</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30071</c:v>
+                  <c:v>2529</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32161</c:v>
+                  <c:v>2578</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37830</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>37935</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41166</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>38166</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>40457</c:v>
+                  <c:v>2563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -520,24 +509,27 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-45C9-455E-BA54-5037E71A87EB}"/>
+              <c16:uniqueId val="{00000002-9D23-41C9-8C51-5BF876C8C978}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="3"/>
           <c:order val="3"/>
-          <c:tx>
-            <c:v>5М</c:v>
-          </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -559,9 +551,9 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -586,13 +578,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="dk1">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -602,42 +595,30 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$6:$L$6</c:f>
+              <c:f>Лист1!$B$5:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>143456</c:v>
+                  <c:v>311494</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>103000</c:v>
+                  <c:v>28630</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77997</c:v>
+                  <c:v>29363</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55684</c:v>
+                  <c:v>26415</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>89911</c:v>
+                  <c:v>31400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>94002</c:v>
+                  <c:v>31663</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>109788</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>116664</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>126351</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>127330</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>116771</c:v>
+                  <c:v>30939</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -645,220 +626,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-45C9-455E-BA54-5037E71A87EB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>10М</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$B$7:$L$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="2">
-                  <c:v>216077</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>169314</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>270183</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>274810</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>288682</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>315022</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>366496</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>362322</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>365527</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-45C9-455E-BA54-5037E71A87EB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>20М</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$B$8:$L$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-45C9-455E-BA54-5037E71A87EB}"/>
+              <c16:uniqueId val="{00000003-9D23-41C9-8C51-5BF876C8C978}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -871,27 +639,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:dropLines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="35000"/>
-                  <a:lumOff val="65000"/>
-                  <a:alpha val="33000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="380069152"/>
-        <c:axId val="380073088"/>
+        <c:axId val="404646304"/>
+        <c:axId val="404646632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="380069152"/>
+        <c:axId val="404646304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -902,9 +655,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="dk1">
+              <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -918,9 +671,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
+                  <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -933,7 +686,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="380073088"/>
+        <c:crossAx val="404646632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -941,12 +694,26 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="380073088"/>
+        <c:axId val="404646632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -963,9 +730,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
+                  <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -978,24 +745,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="380069152"/>
+        <c:crossAx val="404646304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -1020,7 +775,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
+                <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -1040,11 +795,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1112,33 +867,33 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1146,22 +901,22 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="bg1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1176,9 +931,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1212,60 +967,36 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1277,18 +1008,15 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1296,15 +1024,15 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1320,19 +1048,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1347,13 +1077,13 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -1366,15 +1096,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
-            <a:alpha val="33000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1386,16 +1115,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -1404,7 +1134,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -1412,16 +1142,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -1430,16 +1161,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1448,16 +1180,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1466,16 +1199,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1484,7 +1218,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -1496,30 +1230,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1527,15 +1246,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1550,17 +1269,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -1569,12 +1288,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1583,10 +1302,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1598,7 +1317,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -1618,9 +1337,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1631,19 +1350,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -1654,19 +1373,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvPr id="6" name="Диаграмма 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1947,10 +1666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1984,18 +1703,10 @@
       <c r="H1" s="5">
         <v>50</v>
       </c>
-      <c r="I1" s="5">
-        <v>100</v>
-      </c>
-      <c r="J1" s="5">
-        <v>500</v>
-      </c>
-      <c r="K1" s="5">
-        <v>1000</v>
-      </c>
-      <c r="L1" s="5">
-        <v>5000</v>
-      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -2010,38 +1721,30 @@
         <v>1000</v>
       </c>
       <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
         <v>5</v>
       </c>
-      <c r="C2" s="4">
-        <v>15</v>
-      </c>
       <c r="D2" s="5">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E2" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F2" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G2" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H2" s="5">
-        <v>5</v>
-      </c>
-      <c r="I2" s="5">
-        <v>19</v>
-      </c>
-      <c r="J2" s="5">
-        <v>44</v>
-      </c>
-      <c r="K2" s="5">
-        <v>71</v>
-      </c>
-      <c r="L2" s="5">
-        <v>264</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2056,38 +1759,30 @@
         <v>100000</v>
       </c>
       <c r="B3" s="4">
-        <v>198</v>
+        <v>434</v>
       </c>
       <c r="C3" s="4">
-        <v>255</v>
+        <v>75</v>
       </c>
       <c r="D3" s="5">
-        <v>150</v>
+        <v>66</v>
       </c>
       <c r="E3" s="5">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="F3" s="5">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="G3" s="5">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="H3" s="5">
-        <v>113</v>
-      </c>
-      <c r="I3" s="5">
-        <v>135</v>
-      </c>
-      <c r="J3" s="4">
-        <v>110</v>
-      </c>
-      <c r="K3" s="4">
-        <v>161</v>
-      </c>
-      <c r="L3" s="4">
-        <v>359</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2102,38 +1797,30 @@
         <v>1000000</v>
       </c>
       <c r="B4" s="4">
-        <v>4421</v>
+        <v>41163</v>
       </c>
       <c r="C4" s="4">
-        <v>2838</v>
+        <v>1994</v>
       </c>
       <c r="D4" s="5">
-        <v>2504</v>
+        <v>1760</v>
       </c>
       <c r="E4" s="5">
         <v>1975</v>
       </c>
       <c r="F4" s="5">
-        <v>2778</v>
+        <v>2529</v>
       </c>
       <c r="G4" s="5">
-        <v>2725</v>
+        <v>2578</v>
       </c>
       <c r="H4" s="5">
-        <v>3535</v>
-      </c>
-      <c r="I4" s="5">
-        <v>3386</v>
-      </c>
-      <c r="J4" s="5">
-        <v>3354</v>
-      </c>
-      <c r="K4" s="5">
-        <v>3258</v>
-      </c>
-      <c r="L4" s="5">
-        <v>2624</v>
-      </c>
+        <v>2563</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2148,38 +1835,30 @@
         <v>5000000</v>
       </c>
       <c r="B5" s="5">
-        <v>49413</v>
+        <v>311494</v>
       </c>
       <c r="C5" s="5">
-        <v>30611</v>
+        <v>28630</v>
       </c>
       <c r="D5" s="5">
-        <v>27729</v>
+        <v>29363</v>
       </c>
       <c r="E5" s="5">
-        <v>21742</v>
+        <v>26415</v>
       </c>
       <c r="F5" s="5">
-        <v>30071</v>
+        <v>31400</v>
       </c>
       <c r="G5" s="5">
-        <v>32161</v>
+        <v>31663</v>
       </c>
       <c r="H5" s="5">
-        <v>37830</v>
-      </c>
-      <c r="I5" s="5">
-        <v>37935</v>
-      </c>
-      <c r="J5" s="5">
-        <v>41166</v>
-      </c>
-      <c r="K5" s="5">
-        <v>38166</v>
-      </c>
-      <c r="L5" s="5">
-        <v>40457</v>
-      </c>
+        <v>30939</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2190,76 +1869,60 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>10000000</v>
-      </c>
-      <c r="B6" s="5">
-        <v>143456</v>
-      </c>
-      <c r="C6" s="5">
-        <v>103000</v>
-      </c>
-      <c r="D6" s="5">
-        <v>77997</v>
-      </c>
-      <c r="E6" s="5">
-        <v>55684</v>
-      </c>
-      <c r="F6" s="5">
-        <v>89911</v>
-      </c>
-      <c r="G6" s="5">
-        <v>94002</v>
-      </c>
-      <c r="H6" s="5">
-        <v>109788</v>
-      </c>
-      <c r="I6" s="5">
-        <v>116664</v>
-      </c>
-      <c r="J6" s="5">
-        <v>126351</v>
-      </c>
-      <c r="K6" s="5">
-        <v>127330</v>
-      </c>
-      <c r="L6" s="5">
-        <v>116771</v>
-      </c>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>20000000</v>
-      </c>
-      <c r="D7" s="5">
-        <v>216077</v>
-      </c>
-      <c r="E7" s="5">
-        <v>169314</v>
-      </c>
-      <c r="F7" s="5">
-        <v>270183</v>
-      </c>
-      <c r="G7" s="5">
-        <v>274810</v>
-      </c>
-      <c r="H7" s="5">
-        <v>288682</v>
-      </c>
-      <c r="I7" s="5">
-        <v>315022</v>
-      </c>
-      <c r="J7" s="5">
-        <v>366496</v>
-      </c>
-      <c r="K7" s="5">
-        <v>362322</v>
-      </c>
-      <c r="L7" s="5">
-        <v>365527</v>
-      </c>
+      <c r="A7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" t="e">
+        <f>AVERAGE(B10:G10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" t="e">
+        <f t="shared" ref="A11:A13" si="0">AVERAGE(B11:G11)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G13" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
